--- a/target/classes/Resources/testdata.xlsx
+++ b/target/classes/Resources/testdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E4A062-ED6E-41DF-8B69-C9D9E2EC7989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991D3096-65BF-4490-B3D1-F87B794D33F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2628" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2628" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SingleInputData" sheetId="1" r:id="rId1"/>
+    <sheet name="loginData" sheetId="1" r:id="rId1"/>
     <sheet name="pushNotificationInformation" sheetId="2" r:id="rId2"/>
     <sheet name="listUsersData" sheetId="3" r:id="rId3"/>
     <sheet name="hamBurgerMenuData" sheetId="4" r:id="rId4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>abc</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Manage Users</t>
+  </si>
+  <si>
+    <t>Manage Product</t>
+  </si>
+  <si>
+    <t>Verify Users</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,18 +510,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DD3D6-4E89-4500-AF5A-47C469E4C6E9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
